--- a/2022/Realme/Others/Price List/realme price list.xlsx
+++ b/2022/Realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>Model</t>
   </si>
@@ -217,10 +217,10 @@
     <t>C21 Y (3GB+32GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 31-12-2021)</t>
-  </si>
-  <si>
     <t>C11 (2GB+32GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Last Update 15-01-2021)</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="313490" y="9270849"/>
-          <a:ext cx="5220868" cy="244738"/>
+          <a:ext cx="5306593" cy="244738"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="192" cy="262"/>
         </a:xfrm>
@@ -3325,14 +3325,14 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="7" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="15">
         <v>8590</v>
@@ -3447,7 +3447,9 @@
       <c r="C10" s="14">
         <v>11090</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">

--- a/2022/Realme/Others/Price List/realme price list.xlsx
+++ b/2022/Realme/Others/Price List/realme price list.xlsx
@@ -220,7 +220,7 @@
     <t>C11 (2GB+32GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 15-01-2021)</t>
+    <t xml:space="preserve"> (Last Update 16-01-2021)</t>
   </si>
 </sst>
 </file>
@@ -3325,7 +3325,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,7 +3648,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="89" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A25" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/2022/Realme/Others/Price List/realme price list.xlsx
+++ b/2022/Realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Model</t>
   </si>
@@ -220,7 +220,7 @@
     <t>C11 (2GB+32GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 16-01-2021)</t>
+    <t xml:space="preserve"> (Last Update 23-01-2021)</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -499,6 +499,12 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,13 +677,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>313490</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371808</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95362</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -695,7 +701,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="313490" y="9270849"/>
+          <a:off x="313490" y="9204174"/>
           <a:ext cx="5306593" cy="244738"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="192" cy="262"/>
@@ -2998,28 +3004,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3322,10 +3328,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K12" sqref="J11:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,34 +3340,35 @@
     <col min="2" max="2" width="21.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3375,35 +3382,43 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
-        <v>8990</v>
-      </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4">
-        <v>10990</v>
-      </c>
-      <c r="D6" s="14"/>
+    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8590</v>
+      </c>
+      <c r="C5" s="14">
+        <v>9090</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="15">
+        <v>10460</v>
+      </c>
+      <c r="C6" s="14">
+        <v>11090</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B7" s="15">
-        <v>8590</v>
+        <v>8490</v>
       </c>
       <c r="C7" s="14">
-        <v>9090</v>
+        <v>8990</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>46</v>
@@ -3411,10 +3426,10 @@
     </row>
     <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="15">
-        <v>10460</v>
+        <v>10510</v>
       </c>
       <c r="C8" s="14">
         <v>11090</v>
@@ -3425,69 +3440,69 @@
     </row>
     <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B9" s="15">
-        <v>8490</v>
+        <v>10780</v>
       </c>
       <c r="C9" s="14">
-        <v>8990</v>
+        <v>11490</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="15">
-        <v>10510</v>
-      </c>
-      <c r="C10" s="14">
-        <v>11090</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="A10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="19">
+        <v>11950</v>
+      </c>
+      <c r="C10" s="18">
+        <v>12790</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B11" s="15">
-        <v>10780</v>
+        <v>13350</v>
       </c>
       <c r="C11" s="14">
-        <v>11490</v>
+        <v>14290</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="15">
-        <v>11670</v>
-      </c>
-      <c r="C12" s="14">
-        <v>12490</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="A12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="19">
+        <v>15500</v>
+      </c>
+      <c r="C12" s="18">
+        <v>16590</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B13" s="15">
-        <v>13350</v>
+        <v>21500</v>
       </c>
       <c r="C13" s="14">
-        <v>14290</v>
+        <v>22990</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>46</v>
@@ -3495,13 +3510,13 @@
     </row>
     <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" s="15">
-        <v>14660</v>
+        <v>21270</v>
       </c>
       <c r="C14" s="14">
-        <v>15690</v>
+        <v>22990</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>46</v>
@@ -3509,140 +3524,112 @@
     </row>
     <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B15" s="15">
-        <v>21500</v>
+        <v>25890</v>
       </c>
       <c r="C15" s="14">
-        <v>22990</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>46</v>
-      </c>
+        <f>27990</f>
+        <v>27990</v>
+      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B16" s="15">
-        <v>21270</v>
+        <v>18790</v>
       </c>
       <c r="C16" s="14">
-        <v>22990</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>46</v>
-      </c>
+        <v>19990</v>
+      </c>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="15">
-        <v>25890</v>
+        <v>12240</v>
       </c>
       <c r="C17" s="14">
-        <f>27990</f>
-        <v>27990</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="15">
-        <v>18790</v>
-      </c>
-      <c r="C18" s="14">
-        <v>19990</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="15">
-        <v>12240</v>
-      </c>
-      <c r="C19" s="14">
         <f>12990</f>
         <v>12990</v>
       </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="20" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B20" s="15">
         <v>31990</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C20" s="14">
         <v>33990</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="21" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B21" s="15">
         <v>37340</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C21" s="14">
         <v>39990</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+    <row r="22" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="26" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="27"/>
+    <row r="24" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
@@ -3650,7 +3637,7 @@
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A25" numberStoredAsText="1"/>
+    <ignoredError sqref="A23" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/2022/Realme/Others/Price List/realme price list.xlsx
+++ b/2022/Realme/Others/Price List/realme price list.xlsx
@@ -220,7 +220,7 @@
     <t>C11 (2GB+32GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 23-01-2021)</t>
+    <t xml:space="preserve"> (Last Update 27-01-2021)</t>
   </si>
 </sst>
 </file>
@@ -3330,8 +3330,8 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K12" sqref="J11:K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Realme/Others/Price List/realme price list.xlsx
+++ b/2022/Realme/Others/Price List/realme price list.xlsx
@@ -3330,8 +3330,8 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Realme/Others/Price List/realme price list.xlsx
+++ b/2022/Realme/Others/Price List/realme price list.xlsx
@@ -220,7 +220,7 @@
     <t>C11 (2GB+32GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 27-01-2021)</t>
+    <t xml:space="preserve"> (Last Update 05-02-2021)</t>
   </si>
 </sst>
 </file>
@@ -3330,8 +3330,8 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Realme/Others/Price List/realme price list.xlsx
+++ b/2022/Realme/Others/Price List/realme price list.xlsx
@@ -227,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +315,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -456,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -548,6 +554,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,7 +710,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="313490" y="9204174"/>
+          <a:off x="313490" y="9299424"/>
           <a:ext cx="5306593" cy="244738"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="192" cy="262"/>
@@ -3330,8 +3339,8 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,17 +3377,17 @@
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="34" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2022/Realme/Others/Price List/realme price list.xlsx
+++ b/2022/Realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>Model</t>
   </si>
@@ -220,7 +220,13 @@
     <t>C11 (2GB+32GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 05-02-2021)</t>
+    <t xml:space="preserve"> (Last Update 15-02-2021)</t>
+  </si>
+  <si>
+    <t>9i (4GB+64GB)</t>
+  </si>
+  <si>
+    <t>9i (6GB+128GB)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -513,6 +519,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,8 +564,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,13 +704,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>313490</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>371808</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>294250</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95362</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -710,10 +728,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="313490" y="9299424"/>
-          <a:ext cx="5306593" cy="244738"/>
+          <a:off x="313490" y="10309074"/>
+          <a:ext cx="4886135" cy="244738"/>
           <a:chOff x="253" y="249"/>
-          <a:chExt cx="192" cy="262"/>
+          <a:chExt cx="189" cy="262"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -731,7 +749,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="336" y="256"/>
+            <a:off x="329" y="256"/>
             <a:ext cx="6" cy="255"/>
           </a:xfrm>
           <a:custGeom>
@@ -937,7 +955,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="438" y="309"/>
+            <a:off x="435" y="309"/>
             <a:ext cx="7" cy="202"/>
           </a:xfrm>
           <a:custGeom>
@@ -3013,28 +3031,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3337,62 +3355,62 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="35" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="15">
@@ -3406,7 +3424,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="15">
@@ -3420,7 +3438,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="15">
@@ -3429,12 +3447,10 @@
       <c r="C7" s="14">
         <v>8990</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="15">
@@ -3448,7 +3464,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="35" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="15">
@@ -3462,21 +3478,21 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>11950</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="14">
         <v>12790</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="15">
@@ -3490,21 +3506,21 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>15500</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <v>16590</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="15">
@@ -3518,7 +3534,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="15">
@@ -3532,7 +3548,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="15">
@@ -3545,100 +3561,128 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="15">
+        <v>16340</v>
+      </c>
+      <c r="C16" s="14">
+        <v>17490</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="19">
+        <v>18210</v>
+      </c>
+      <c r="C17" s="18">
+        <v>19490</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B18" s="15">
         <v>18790</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C18" s="14">
         <v>19990</v>
       </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B19" s="15">
         <v>12240</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C19" s="14">
         <f>12990</f>
         <v>12990</v>
       </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B22" s="15">
         <v>31990</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C22" s="14">
         <v>33990</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="23" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B23" s="15">
         <v>37340</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C23" s="14">
         <v>39990</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="28" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="29"/>
+    <row r="26" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
@@ -3646,7 +3690,7 @@
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A23" numberStoredAsText="1"/>
+    <ignoredError sqref="A25" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
